--- a/文档/资源.xlsx
+++ b/文档/资源.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C126AD-2078-4F13-827E-C326456DBE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD1DC34-74E9-4550-8C5C-374C0DBD5949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="150">
   <si>
     <t>RESOURCE_BANANAS</t>
   </si>
@@ -143,24 +143,6 @@
     <t>RESOURCE_WINE</t>
   </si>
   <si>
-    <t>RESOURCE_JEANS</t>
-  </si>
-  <si>
-    <t>RESOURCE_PERFUME</t>
-  </si>
-  <si>
-    <t>RESOURCE_COSMETICS</t>
-  </si>
-  <si>
-    <t>RESOURCE_TOYS</t>
-  </si>
-  <si>
-    <t>RESOURCE_CINNAMON</t>
-  </si>
-  <si>
-    <t>RESOURCE_CLOVES</t>
-  </si>
-  <si>
     <t>RESOURCE_ALUMINUM</t>
   </si>
   <si>
@@ -427,6 +409,175 @@
   </si>
   <si>
     <t>1粮（建筑+1，改良+1~2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1鸽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1粮1锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水磨（粮）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮仓（粮）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品市场和购物商场提供的改良将删除，灯塔仅提供加成资源上的1粮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马厩（锤）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工坊（锤）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石工坊（锤）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯塔（粮）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加成资源统一设为1产，建筑补1产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1锤1瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了油井作为后期改良以外，其它战略资源统一为2产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奢侈资源保底2产，根据产出量调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现位置产出量
+（以2为基准）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1/-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0（雨林）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0（雨林、水）/+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/0（雨林）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1/0（雨林）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0（平地、雨林）/+1/-1/-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/-1/-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1/-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0（泛滥）/-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/0（雨林）/+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1/+1/0（雨林）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为也可在平原上出现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1粮2金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1鸽2金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1琴2金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2鸽1琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1瓶2金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -488,6 +639,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,13 +933,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P112"/>
+  <dimension ref="A1:S106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -786,46 +955,75 @@
     <col min="11" max="11" width="46.21875" hidden="1" customWidth="1"/>
     <col min="12" max="13" width="9" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="17.88671875" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -833,22 +1031,36 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -856,19 +1068,33 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -876,13 +1102,27 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -890,13 +1130,27 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -904,22 +1158,36 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -927,22 +1195,36 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -950,13 +1232,27 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -964,13 +1260,30 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -978,13 +1291,27 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -992,54 +1319,111 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1047,22 +1431,35 @@
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1070,16 +1467,26 @@
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1087,27 +1494,47 @@
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1115,16 +1542,26 @@
         <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1132,21 +1569,41 @@
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O22" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1154,21 +1611,41 @@
         <v>12</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1176,21 +1653,41 @@
         <v>12</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1198,19 +1695,29 @@
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1218,13 +1725,23 @@
         <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1232,19 +1749,29 @@
         <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1252,24 +1779,44 @@
         <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1277,18 +1824,38 @@
         <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1297,19 +1864,29 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1317,336 +1894,462 @@
         <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q39" s="4"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c r="Q41" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c r="Q47" s="4"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
         <v>50</v>
       </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
         <v>51</v>
       </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
         <v>52</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" t="s">
-        <v>55</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1654,32 +2357,32 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1687,32 +2390,32 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1720,32 +2423,32 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -1753,10 +2456,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1764,10 +2467,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1775,10 +2478,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1786,10 +2489,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1797,10 +2500,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -1808,10 +2511,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -1819,10 +2522,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1830,10 +2533,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1841,43 +2544,43 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -1885,10 +2588,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -1896,54 +2599,54 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B89" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -1951,10 +2654,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B92" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1962,21 +2665,21 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B93" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -1984,10 +2687,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -1995,10 +2698,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2006,10 +2709,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B97" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2017,10 +2720,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B98" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2028,32 +2731,32 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B99" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B100" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B101" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -2061,10 +2764,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2072,10 +2775,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2083,10 +2786,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B104" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2094,94 +2797,37 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B105" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>48</v>
+      </c>
+      <c r="B106" t="s">
         <v>49</v>
-      </c>
-      <c r="B106" t="s">
-        <v>57</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>50</v>
-      </c>
-      <c r="B107" t="s">
-        <v>58</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>51</v>
-      </c>
-      <c r="B108" t="s">
-        <v>56</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>51</v>
-      </c>
-      <c r="B109" t="s">
-        <v>57</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>52</v>
-      </c>
-      <c r="B110" t="s">
-        <v>60</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>53</v>
-      </c>
-      <c r="B111" t="s">
-        <v>56</v>
-      </c>
-      <c r="C111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>54</v>
-      </c>
-      <c r="B112" t="s">
-        <v>55</v>
-      </c>
-      <c r="C112">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="Q2:Q12"/>
+    <mergeCell ref="R2:R12"/>
+    <mergeCell ref="Q41:Q47"/>
+    <mergeCell ref="Q13:Q40"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError sqref="O11" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/文档/资源.xlsx
+++ b/文档/资源.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD1DC34-74E9-4550-8C5C-374C0DBD5949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6E2FBF-57FC-4E33-9680-0D4A6BD60E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="149">
   <si>
     <t>RESOURCE_BANANAS</t>
   </si>
@@ -453,10 +453,6 @@
   </si>
   <si>
     <t>工坊（锤）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石工坊（锤）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -608,12 +604,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -630,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -639,12 +641,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -656,6 +652,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,7 +944,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -955,7 +960,7 @@
     <col min="11" max="11" width="46.21875" hidden="1" customWidth="1"/>
     <col min="12" max="13" width="9" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="17.88671875" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" style="4" customWidth="1"/>
     <col min="16" max="16" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -984,8 +989,8 @@
       <c r="N1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>125</v>
+      <c r="O1" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>113</v>
@@ -1008,19 +1013,19 @@
         <v>69</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O2" s="6">
+        <v>142</v>
+      </c>
+      <c r="O2" s="4">
         <v>0</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>121</v>
+      <c r="R2" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1049,16 +1054,16 @@
         <v>101</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="P3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1083,16 +1088,16 @@
         <v>101</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O4" s="6">
+        <v>142</v>
+      </c>
+      <c r="O4" s="4">
         <v>0</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1111,16 +1116,16 @@
         <v>69</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O5" s="6">
+        <v>142</v>
+      </c>
+      <c r="O5" s="4">
         <v>0</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1139,16 +1144,16 @@
         <v>69</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O6" s="6">
+        <v>142</v>
+      </c>
+      <c r="O6" s="4">
         <v>0</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="P6" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1176,16 +1181,16 @@
         <v>82</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1213,16 +1218,16 @@
         <v>101</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O8" s="6">
+        <v>142</v>
+      </c>
+      <c r="O8" s="4">
         <v>0</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="P8" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1241,16 +1246,16 @@
         <v>101</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O9" s="6">
+        <v>142</v>
+      </c>
+      <c r="O9" s="4">
         <v>0</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1269,18 +1274,18 @@
         <v>101</v>
       </c>
       <c r="N10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1300,16 +1305,16 @@
         <v>82</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1337,16 +1342,16 @@
         <v>101</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="P12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="P12" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1359,14 +1364,14 @@
         <v>62</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>128</v>
+        <v>142</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="3" t="s">
-        <v>124</v>
+      <c r="Q13" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1382,10 +1387,10 @@
       <c r="N14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="O14" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q14" s="4"/>
+      <c r="O14" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1398,12 +1403,12 @@
         <v>108</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q15" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1418,10 +1423,10 @@
       <c r="N16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O16" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q16" s="4"/>
+      <c r="O16" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1454,10 +1459,10 @@
       <c r="N17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O17" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q17" s="4"/>
+      <c r="O17" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1479,12 +1484,12 @@
         <v>109</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q18" s="4"/>
+        <v>145</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1509,12 +1514,12 @@
         <v>86</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q19" s="4"/>
+        <v>144</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1529,10 +1534,10 @@
       <c r="N20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O20" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q20" s="4"/>
+      <c r="O20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1554,12 +1559,12 @@
         <v>109</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q21" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1580,10 +1585,10 @@
       <c r="N22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O22" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q22" s="4"/>
+      <c r="O22" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1596,12 +1601,12 @@
         <v>108</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q23" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q23" s="8"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1620,12 +1625,12 @@
         <v>108</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q24" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q24" s="8"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1638,12 +1643,12 @@
         <v>110</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q25" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q25" s="8"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1662,12 +1667,12 @@
         <v>109</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q26" s="4"/>
+        <v>145</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q26" s="8"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1682,10 +1687,10 @@
       <c r="N27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O27" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q27" s="4"/>
+      <c r="O27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q27" s="8"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1710,12 +1715,12 @@
         <v>108</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q28" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q28" s="8"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1736,10 +1741,10 @@
       <c r="N29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O29" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q29" s="4"/>
+      <c r="O29" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q29" s="8"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1764,12 +1769,12 @@
         <v>62</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q30" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1791,12 +1796,12 @@
         <v>62</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q31" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1809,12 +1814,12 @@
         <v>110</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q32" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q32" s="8"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1830,12 +1835,12 @@
         <v>109</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q33" s="4"/>
+        <v>145</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q33" s="8"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1850,10 +1855,10 @@
       <c r="N34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O34" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q34" s="4"/>
+      <c r="O34" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q34" s="8"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1881,10 +1886,10 @@
       <c r="N35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O35" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q35" s="4"/>
+      <c r="O35" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q35" s="8"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1909,12 +1914,12 @@
         <v>86</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q36" s="4"/>
+        <v>144</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q36" s="8"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1927,12 +1932,12 @@
         <v>108</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q37" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q37" s="8"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1947,10 +1952,10 @@
       <c r="N38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O38" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q38" s="4"/>
+      <c r="O38" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q38" s="8"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1963,12 +1968,12 @@
         <v>110</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q39" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q39" s="8"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1981,12 +1986,12 @@
         <v>62</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q40" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q40" s="8"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -2008,11 +2013,11 @@
         <v>110</v>
       </c>
       <c r="N41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O41" s="6"/>
+      <c r="Q41" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="O41" s="8"/>
-      <c r="Q41" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -2041,10 +2046,10 @@
         <v>61</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O42" s="8"/>
-      <c r="Q42" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="O42" s="6"/>
+      <c r="Q42" s="8"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -2071,8 +2076,8 @@
       <c r="N43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O43" s="8"/>
-      <c r="Q43" s="4"/>
+      <c r="O43" s="6"/>
+      <c r="Q43" s="8"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -2097,10 +2102,10 @@
         <v>110</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O44" s="8"/>
-      <c r="Q44" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="O44" s="6"/>
+      <c r="Q44" s="8"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -2118,8 +2123,8 @@
       <c r="N45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O45" s="8"/>
-      <c r="Q45" s="4"/>
+      <c r="O45" s="6"/>
+      <c r="Q45" s="8"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -2147,10 +2152,10 @@
         <v>73</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O46" s="8"/>
-      <c r="Q46" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="O46" s="6"/>
+      <c r="Q46" s="8"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -2172,10 +2177,10 @@
         <v>61</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O47" s="8"/>
-      <c r="Q47" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="O47" s="6"/>
+      <c r="Q47" s="8"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">

--- a/文档/资源.xlsx
+++ b/文档/资源.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6E2FBF-57FC-4E33-9680-0D4A6BD60E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E147583F-04A5-4EF6-8C37-2495B658F625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="165">
   <si>
     <t>RESOURCE_BANANAS</t>
   </si>
@@ -574,6 +574,70 @@
   </si>
   <si>
     <t>1瓶2金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_COCOA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_COFFEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_COTTON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_DIAMONDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_INCENSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_IVORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_SALT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_JADE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_MARBLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_PEARLS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_MERCURY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_TOBACCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_TRUFFLES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_WHALES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_TURTLES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE_ALUMINUM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,14 +718,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,10 +1005,10 @@
   <dimension ref="A1:S106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1018,13 +1082,13 @@
       <c r="O2" s="4">
         <v>0</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="8" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1059,11 +1123,11 @@
       <c r="O3" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1093,11 +1157,11 @@
       <c r="O4" s="4">
         <v>0</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1121,11 +1185,11 @@
       <c r="O5" s="4">
         <v>0</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1149,11 +1213,11 @@
       <c r="O6" s="4">
         <v>0</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1186,11 +1250,11 @@
       <c r="O7" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1223,11 +1287,11 @@
       <c r="O8" s="4">
         <v>0</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1251,11 +1315,11 @@
       <c r="O9" s="4">
         <v>0</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1279,11 +1343,11 @@
       <c r="O10" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
       <c r="S10" s="1" t="s">
         <v>143</v>
       </c>
@@ -1310,11 +1374,11 @@
       <c r="O11" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1347,11 +1411,11 @@
       <c r="O12" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1370,13 +1434,13 @@
         <v>127</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1390,11 +1454,11 @@
       <c r="O14" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="Q14" s="8"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1408,11 +1472,11 @@
       <c r="O15" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="Q15" s="8"/>
+      <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1426,11 +1490,11 @@
       <c r="O16" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="Q16" s="8"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1462,7 +1526,7 @@
       <c r="O17" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="Q17" s="8"/>
+      <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1489,7 +1553,7 @@
       <c r="O18" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="Q18" s="8"/>
+      <c r="Q18" s="9"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1519,7 +1583,7 @@
       <c r="O19" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="Q19" s="8"/>
+      <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1537,11 +1601,11 @@
       <c r="O20" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="Q20" s="8"/>
+      <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -1564,11 +1628,11 @@
       <c r="O21" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="Q21" s="8"/>
+      <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -1588,11 +1652,11 @@
       <c r="O22" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="Q22" s="8"/>
+      <c r="Q22" s="9"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -1606,11 +1670,11 @@
       <c r="O23" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="Q23" s="8"/>
+      <c r="Q23" s="9"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -1630,11 +1694,11 @@
       <c r="O24" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="Q24" s="8"/>
+      <c r="Q24" s="9"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -1648,11 +1712,11 @@
       <c r="O25" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="Q25" s="8"/>
+      <c r="Q25" s="9"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -1672,11 +1736,11 @@
       <c r="O26" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="Q26" s="8"/>
+      <c r="Q26" s="9"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -1690,7 +1754,7 @@
       <c r="O27" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="Q27" s="8"/>
+      <c r="Q27" s="9"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1720,7 +1784,7 @@
       <c r="O28" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="Q28" s="8"/>
+      <c r="Q28" s="9"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1744,7 +1808,7 @@
       <c r="O29" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="Q29" s="8"/>
+      <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1774,7 +1838,7 @@
       <c r="O30" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="Q30" s="8"/>
+      <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1801,7 +1865,7 @@
       <c r="O31" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="Q31" s="8"/>
+      <c r="Q31" s="9"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1819,11 +1883,11 @@
       <c r="O32" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="Q32" s="8"/>
+      <c r="Q32" s="9"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -1840,11 +1904,11 @@
       <c r="O33" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="Q33" s="8"/>
+      <c r="Q33" s="9"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -1858,11 +1922,11 @@
       <c r="O34" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="Q34" s="8"/>
+      <c r="Q34" s="9"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -1889,7 +1953,7 @@
       <c r="O35" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="Q35" s="8"/>
+      <c r="Q35" s="9"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1919,7 +1983,7 @@
       <c r="O36" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="Q36" s="8"/>
+      <c r="Q36" s="9"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1937,7 +2001,7 @@
       <c r="O37" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="Q37" s="8"/>
+      <c r="Q37" s="9"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1955,11 +2019,11 @@
       <c r="O38" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="Q38" s="8"/>
+      <c r="Q38" s="9"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>46</v>
+      <c r="A39" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
@@ -1973,7 +2037,7 @@
       <c r="O39" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="Q39" s="8"/>
+      <c r="Q39" s="9"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1991,11 +2055,11 @@
       <c r="O40" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="Q40" s="8"/>
+      <c r="Q40" s="9"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>36</v>
+      <c r="A41" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
@@ -2016,7 +2080,7 @@
         <v>121</v>
       </c>
       <c r="O41" s="6"/>
-      <c r="Q41" s="7" t="s">
+      <c r="Q41" s="8" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2049,7 +2113,7 @@
         <v>142</v>
       </c>
       <c r="O42" s="6"/>
-      <c r="Q42" s="8"/>
+      <c r="Q42" s="9"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -2074,10 +2138,10 @@
         <v>111</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="O43" s="6"/>
-      <c r="Q43" s="8"/>
+      <c r="Q43" s="9"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -2105,7 +2169,7 @@
         <v>121</v>
       </c>
       <c r="O44" s="6"/>
-      <c r="Q44" s="8"/>
+      <c r="Q44" s="9"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -2124,7 +2188,7 @@
         <v>83</v>
       </c>
       <c r="O45" s="6"/>
-      <c r="Q45" s="8"/>
+      <c r="Q45" s="9"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -2155,7 +2219,7 @@
         <v>142</v>
       </c>
       <c r="O46" s="6"/>
-      <c r="Q46" s="8"/>
+      <c r="Q46" s="9"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -2180,7 +2244,7 @@
         <v>142</v>
       </c>
       <c r="O47" s="6"/>
-      <c r="Q47" s="8"/>
+      <c r="Q47" s="9"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">

--- a/文档/资源.xlsx
+++ b/文档/资源.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E147583F-04A5-4EF6-8C37-2495B658F625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2540F3-1F39-4D2B-8764-2917A701639D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="0" windowWidth="19500" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1008,7 +1008,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N44" sqref="N44"/>
+      <selection pane="bottomRight" activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2182,10 +2182,10 @@
         <v>81</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="O45" s="6"/>
       <c r="Q45" s="9"/>

--- a/文档/资源.xlsx
+++ b/文档/资源.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2540F3-1F39-4D2B-8764-2917A701639D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7A0AEC-6CE2-4547-B11C-6BBD1BF3B49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="0" windowWidth="19500" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="240" windowWidth="19500" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1005,10 +1005,10 @@
   <dimension ref="A1:S106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N46" sqref="N46"/>
+      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1647,7 @@
         <v>85</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O22" s="6" t="s">
         <v>134</v>
